--- a/data/long_razon/P23_11-Urba-long_razon.xlsx
+++ b/data/long_razon/P23_11-Urba-long_razon.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +544,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +578,52 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -587,6 +636,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-42,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>27,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-18,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>36,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-30,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>33,54%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -639,32 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-66,25; -9,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-17,74; 88,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-39,72; 11,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,21; 82,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-47,05; -8,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,11; 70,28</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -681,32 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-17,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>10,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-5,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>7,86%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -719,32 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-54,34; 40,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-33,0; 75,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-27,98; 48,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-20,08; 42,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-28,54; 29,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-18,62; 40,72</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -761,32 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-38,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>73,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>21,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>95,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-11,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>87,01%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -799,32 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-73,87; 58,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-53,53; 474,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-42,66; 162,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,31; 269,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-47,04; 52,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,54; 245,82</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -841,32 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-34,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>22,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-6,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>28,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-18,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>26,37%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -879,45 +1144,82 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-52,84; -8,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-11,29; 70,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-24,26; 17,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,45; 52,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-33,04; -2,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,55; 47,88</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_razon/P23_11-Urba-long_razon.xlsx
+++ b/data/long_razon/P23_11-Urba-long_razon.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +140,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -654,419 +659,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="inlineStr"/>
+      <c r="D4" s="5" t="inlineStr"/>
+      <c r="E4" s="5" t="inlineStr"/>
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="5" t="inlineStr"/>
+      <c r="J4" s="5" t="inlineStr"/>
+      <c r="K4" s="5" t="inlineStr"/>
+      <c r="L4" s="5" t="inlineStr"/>
+      <c r="M4" s="5" t="inlineStr"/>
+      <c r="N4" s="5" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="inlineStr"/>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="5" t="inlineStr"/>
+      <c r="J5" s="5" t="inlineStr"/>
+      <c r="K5" s="5" t="inlineStr"/>
+      <c r="L5" s="5" t="inlineStr"/>
+      <c r="M5" s="5" t="inlineStr"/>
+      <c r="N5" s="5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr"/>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="5" t="inlineStr"/>
+      <c r="J6" s="5" t="inlineStr"/>
+      <c r="K6" s="5" t="inlineStr"/>
+      <c r="L6" s="5" t="inlineStr"/>
+      <c r="M6" s="5" t="inlineStr"/>
+      <c r="N6" s="5" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="inlineStr"/>
+      <c r="D7" s="5" t="inlineStr"/>
+      <c r="E7" s="5" t="inlineStr"/>
+      <c r="F7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="5" t="inlineStr"/>
+      <c r="J7" s="5" t="inlineStr"/>
+      <c r="K7" s="5" t="inlineStr"/>
+      <c r="L7" s="5" t="inlineStr"/>
+      <c r="M7" s="5" t="inlineStr"/>
+      <c r="N7" s="5" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr"/>
+      <c r="D8" s="5" t="inlineStr"/>
+      <c r="E8" s="5" t="inlineStr"/>
+      <c r="F8" s="5" t="inlineStr"/>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="inlineStr"/>
+      <c r="I8" s="5" t="inlineStr"/>
+      <c r="J8" s="5" t="inlineStr"/>
+      <c r="K8" s="5" t="inlineStr"/>
+      <c r="L8" s="5" t="inlineStr"/>
+      <c r="M8" s="5" t="inlineStr"/>
+      <c r="N8" s="5" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr"/>
+      <c r="D9" s="5" t="inlineStr"/>
+      <c r="E9" s="5" t="inlineStr"/>
+      <c r="F9" s="5" t="inlineStr"/>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="inlineStr"/>
+      <c r="I9" s="5" t="inlineStr"/>
+      <c r="J9" s="5" t="inlineStr"/>
+      <c r="K9" s="5" t="inlineStr"/>
+      <c r="L9" s="5" t="inlineStr"/>
+      <c r="M9" s="5" t="inlineStr"/>
+      <c r="N9" s="5" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1074,137 +787,125 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="inlineStr"/>
+      <c r="D10" s="5" t="inlineStr"/>
+      <c r="E10" s="5" t="inlineStr"/>
+      <c r="F10" s="5" t="inlineStr"/>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="5" t="inlineStr"/>
+      <c r="J10" s="5" t="inlineStr"/>
+      <c r="K10" s="5" t="inlineStr"/>
+      <c r="L10" s="5" t="inlineStr"/>
+      <c r="M10" s="5" t="inlineStr"/>
+      <c r="N10" s="5" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr"/>
+      <c r="D11" s="5" t="inlineStr"/>
+      <c r="E11" s="5" t="inlineStr"/>
+      <c r="F11" s="5" t="inlineStr"/>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="5" t="inlineStr"/>
+      <c r="J11" s="5" t="inlineStr"/>
+      <c r="K11" s="5" t="inlineStr"/>
+      <c r="L11" s="5" t="inlineStr"/>
+      <c r="M11" s="5" t="inlineStr"/>
+      <c r="N11" s="5" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr"/>
+      <c r="D12" s="5" t="inlineStr"/>
+      <c r="E12" s="5" t="inlineStr"/>
+      <c r="F12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="5" t="inlineStr"/>
+      <c r="J12" s="5" t="inlineStr"/>
+      <c r="K12" s="5" t="inlineStr"/>
+      <c r="L12" s="5" t="inlineStr"/>
+      <c r="M12" s="5" t="inlineStr"/>
+      <c r="N12" s="5" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="inlineStr"/>
+      <c r="D13" s="5" t="inlineStr"/>
+      <c r="E13" s="5" t="inlineStr"/>
+      <c r="F13" s="5" t="inlineStr"/>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="inlineStr"/>
+      <c r="I13" s="5" t="inlineStr"/>
+      <c r="J13" s="5" t="inlineStr"/>
+      <c r="K13" s="5" t="inlineStr"/>
+      <c r="L13" s="5" t="inlineStr"/>
+      <c r="M13" s="5" t="inlineStr"/>
+      <c r="N13" s="5" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr"/>
+      <c r="D14" s="5" t="inlineStr"/>
+      <c r="E14" s="5" t="inlineStr"/>
+      <c r="F14" s="5" t="inlineStr"/>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr"/>
+      <c r="I14" s="5" t="inlineStr"/>
+      <c r="J14" s="5" t="inlineStr"/>
+      <c r="K14" s="5" t="inlineStr"/>
+      <c r="L14" s="5" t="inlineStr"/>
+      <c r="M14" s="5" t="inlineStr"/>
+      <c r="N14" s="5" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr"/>
+      <c r="D15" s="5" t="inlineStr"/>
+      <c r="E15" s="5" t="inlineStr"/>
+      <c r="F15" s="5" t="inlineStr"/>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="inlineStr"/>
+      <c r="I15" s="5" t="inlineStr"/>
+      <c r="J15" s="5" t="inlineStr"/>
+      <c r="K15" s="5" t="inlineStr"/>
+      <c r="L15" s="5" t="inlineStr"/>
+      <c r="M15" s="5" t="inlineStr"/>
+      <c r="N15" s="5" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1212,14 +913,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_razon/P23_11-Urba-long_razon.xlsx
+++ b/data/long_razon/P23_11-Urba-long_razon.xlsx
@@ -659,18 +659,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr"/>
-      <c r="D4" s="5" t="inlineStr"/>
-      <c r="E4" s="5" t="inlineStr"/>
-      <c r="F4" s="5" t="inlineStr"/>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="inlineStr"/>
-      <c r="J4" s="5" t="inlineStr"/>
-      <c r="K4" s="5" t="inlineStr"/>
-      <c r="L4" s="5" t="inlineStr"/>
-      <c r="M4" s="5" t="inlineStr"/>
-      <c r="N4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="n">
+        <v>-0.4485122072052122</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.3233359849744943</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>1.300387908172573</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.2578541025628234</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-0.1431950199281324</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>0.3691109127926192</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>0.02039087559685962</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>0.04609432803197018</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>-0.2897576447841637</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>0.3530534424398961</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>0.446846684039729</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>0.152653185370138</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -679,18 +703,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="5" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr"/>
-      <c r="F5" s="5" t="inlineStr"/>
-      <c r="G5" s="5" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="inlineStr"/>
-      <c r="J5" s="5" t="inlineStr"/>
-      <c r="K5" s="5" t="inlineStr"/>
-      <c r="L5" s="5" t="inlineStr"/>
-      <c r="M5" s="5" t="inlineStr"/>
-      <c r="N5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="n">
+        <v>-0.6715025012678505</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.1813056481641408</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>0.3151482111194954</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.1468525671249061</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.3865478374540296</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>0.02837711606507657</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.2591573994538174</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.2370218389716275</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>-0.4696135766090782</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>0.06965056520644169</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>0.08700158853630542</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>-0.121541631050225</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -699,18 +747,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr"/>
-      <c r="D6" s="5" t="inlineStr"/>
-      <c r="E6" s="5" t="inlineStr"/>
-      <c r="F6" s="5" t="inlineStr"/>
-      <c r="G6" s="5" t="inlineStr"/>
-      <c r="H6" s="5" t="inlineStr"/>
-      <c r="I6" s="5" t="inlineStr"/>
-      <c r="J6" s="5" t="inlineStr"/>
-      <c r="K6" s="5" t="inlineStr"/>
-      <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr"/>
-      <c r="N6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="n">
+        <v>-0.1742487514509154</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>1.103381852880774</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>3.659396665782723</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0.8801146104118408</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>0.1669261817514025</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>0.7987651646131232</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>0.3915191764944662</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>0.4150668137859528</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>-0.06536729154536543</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>0.7335629856891244</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>1.236677804513354</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>0.5078893753434053</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -723,18 +795,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr"/>
-      <c r="D7" s="5" t="inlineStr"/>
-      <c r="E7" s="5" t="inlineStr"/>
-      <c r="F7" s="5" t="inlineStr"/>
-      <c r="G7" s="5" t="inlineStr"/>
-      <c r="H7" s="5" t="inlineStr"/>
-      <c r="I7" s="5" t="inlineStr"/>
-      <c r="J7" s="5" t="inlineStr"/>
-      <c r="K7" s="5" t="inlineStr"/>
-      <c r="L7" s="5" t="inlineStr"/>
-      <c r="M7" s="5" t="inlineStr"/>
-      <c r="N7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="n">
+        <v>-0.1367120091844312</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.1272497972163981</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.9617113226952477</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.2910857818616244</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0.08401139242782539</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0.0377240185321859</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>0.05681216396404223</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>1.631714115258858</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>-0.001970384948749097</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>0.07546707223168871</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>0.3998228681903027</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>0.9118126743508789</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -743,18 +839,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr"/>
-      <c r="D8" s="5" t="inlineStr"/>
-      <c r="E8" s="5" t="inlineStr"/>
-      <c r="F8" s="5" t="inlineStr"/>
-      <c r="G8" s="5" t="inlineStr"/>
-      <c r="H8" s="5" t="inlineStr"/>
-      <c r="I8" s="5" t="inlineStr"/>
-      <c r="J8" s="5" t="inlineStr"/>
-      <c r="K8" s="5" t="inlineStr"/>
-      <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="inlineStr"/>
-      <c r="N8" s="5" t="inlineStr"/>
+      <c r="C8" s="5" t="n">
+        <v>-0.5154129487215411</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.27826937182276</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>0.1638930274280084</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.3848373309870707</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.284697383068526</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.265347549370788</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.2562013355914907</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>0.4375619491904194</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>-0.2898889859771168</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>-0.1707138517276284</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>0.05485532328484493</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>0.200545583597332</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -763,18 +883,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr"/>
-      <c r="D9" s="5" t="inlineStr"/>
-      <c r="E9" s="5" t="inlineStr"/>
-      <c r="F9" s="5" t="inlineStr"/>
-      <c r="G9" s="5" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr"/>
-      <c r="I9" s="5" t="inlineStr"/>
-      <c r="J9" s="5" t="inlineStr"/>
-      <c r="K9" s="5" t="inlineStr"/>
-      <c r="L9" s="5" t="inlineStr"/>
-      <c r="M9" s="5" t="inlineStr"/>
-      <c r="N9" s="5" t="inlineStr"/>
+      <c r="C9" s="5" t="n">
+        <v>0.3878070463639119</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.822441238950576</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>2.506755823724322</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>1.75286172378343</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.5272981743459154</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.3826335841289619</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.5566194224080159</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>4.04887240107609</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>0.3345869344945411</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>0.4711544402001572</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>0.9764758419659111</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>2.16025177648756</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -787,17 +931,35 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr"/>
-      <c r="D10" s="5" t="inlineStr"/>
-      <c r="E10" s="5" t="inlineStr"/>
+      <c r="C10" s="5" t="n">
+        <v>-0.3550178816848568</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.8394537775620581</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.4044838055440033</v>
+      </c>
       <c r="F10" s="5" t="inlineStr"/>
-      <c r="G10" s="5" t="inlineStr"/>
-      <c r="H10" s="5" t="inlineStr"/>
-      <c r="I10" s="5" t="inlineStr"/>
+      <c r="G10" s="5" t="n">
+        <v>0.1530601757120502</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>0.939377483557601</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>-0.1339768990832887</v>
+      </c>
       <c r="J10" s="5" t="inlineStr"/>
-      <c r="K10" s="5" t="inlineStr"/>
-      <c r="L10" s="5" t="inlineStr"/>
-      <c r="M10" s="5" t="inlineStr"/>
+      <c r="K10" s="5" t="n">
+        <v>-0.1192401861700405</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>0.9007907524506754</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>-0.2906181205359963</v>
+      </c>
       <c r="N10" s="5" t="inlineStr"/>
     </row>
     <row r="11">
@@ -807,17 +969,35 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr"/>
-      <c r="D11" s="5" t="inlineStr"/>
-      <c r="E11" s="5" t="inlineStr"/>
+      <c r="C11" s="5" t="n">
+        <v>-0.7277490627346695</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.5223617493368861</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.9179766581708465</v>
+      </c>
       <c r="F11" s="5" t="inlineStr"/>
-      <c r="G11" s="5" t="inlineStr"/>
-      <c r="H11" s="5" t="inlineStr"/>
-      <c r="I11" s="5" t="inlineStr"/>
+      <c r="G11" s="5" t="n">
+        <v>-0.4071500529824242</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.07373059465536087</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.6461338299252084</v>
+      </c>
       <c r="J11" s="5" t="inlineStr"/>
-      <c r="K11" s="5" t="inlineStr"/>
-      <c r="L11" s="5" t="inlineStr"/>
-      <c r="M11" s="5" t="inlineStr"/>
+      <c r="K11" s="5" t="n">
+        <v>-0.4894953598423181</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>0.04932324937380089</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>-0.7611839334789259</v>
+      </c>
       <c r="N11" s="5" t="inlineStr"/>
     </row>
     <row r="12">
@@ -827,17 +1007,35 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr"/>
-      <c r="D12" s="5" t="inlineStr"/>
-      <c r="E12" s="5" t="inlineStr"/>
+      <c r="C12" s="5" t="n">
+        <v>0.7436373869526253</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>5.001444339835723</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>1.638323136346221</v>
+      </c>
       <c r="F12" s="5" t="inlineStr"/>
-      <c r="G12" s="5" t="inlineStr"/>
-      <c r="H12" s="5" t="inlineStr"/>
-      <c r="I12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="n">
+        <v>1.38910588370103</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>2.825909488875796</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>1.483847028131967</v>
+      </c>
       <c r="J12" s="5" t="inlineStr"/>
-      <c r="K12" s="5" t="inlineStr"/>
-      <c r="L12" s="5" t="inlineStr"/>
-      <c r="M12" s="5" t="inlineStr"/>
+      <c r="K12" s="5" t="n">
+        <v>0.5029611153162314</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>2.703938323663635</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>0.5530060127475742</v>
+      </c>
       <c r="N12" s="5" t="inlineStr"/>
     </row>
     <row r="13">
@@ -851,18 +1049,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr"/>
-      <c r="D13" s="5" t="inlineStr"/>
-      <c r="E13" s="5" t="inlineStr"/>
-      <c r="F13" s="5" t="inlineStr"/>
-      <c r="G13" s="5" t="inlineStr"/>
-      <c r="H13" s="5" t="inlineStr"/>
-      <c r="I13" s="5" t="inlineStr"/>
-      <c r="J13" s="5" t="inlineStr"/>
-      <c r="K13" s="5" t="inlineStr"/>
-      <c r="L13" s="5" t="inlineStr"/>
-      <c r="M13" s="5" t="inlineStr"/>
-      <c r="N13" s="5" t="inlineStr"/>
+      <c r="C13" s="5" t="n">
+        <v>-0.3415551317188682</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.2700608897717076</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.7798429087299175</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.2645669700979346</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-0.02263475751946323</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.2756512078873383</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0.01720838965541389</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>0.3331764323078327</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>-0.1678721567388779</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>0.2734923390648492</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>0.3136086949616976</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>0.2982073337047049</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
@@ -871,18 +1093,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr"/>
-      <c r="D14" s="5" t="inlineStr"/>
-      <c r="E14" s="5" t="inlineStr"/>
-      <c r="F14" s="5" t="inlineStr"/>
-      <c r="G14" s="5" t="inlineStr"/>
-      <c r="H14" s="5" t="inlineStr"/>
-      <c r="I14" s="5" t="inlineStr"/>
-      <c r="J14" s="5" t="inlineStr"/>
-      <c r="K14" s="5" t="inlineStr"/>
-      <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="inlineStr"/>
-      <c r="N14" s="5" t="inlineStr"/>
+      <c r="C14" s="5" t="n">
+        <v>-0.5339435485119841</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.06385646052344386</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.09738889674334181</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.09771885001195464</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.2051152219784266</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>0.05545007358861131</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-0.1918061756838896</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.01477330758468107</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>-0.3164463831482885</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>0.08046086085850654</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>0.04787225565276945</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>0.04462655518589154</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -891,18 +1137,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr"/>
-      <c r="D15" s="5" t="inlineStr"/>
-      <c r="E15" s="5" t="inlineStr"/>
-      <c r="F15" s="5" t="inlineStr"/>
-      <c r="G15" s="5" t="inlineStr"/>
-      <c r="H15" s="5" t="inlineStr"/>
-      <c r="I15" s="5" t="inlineStr"/>
-      <c r="J15" s="5" t="inlineStr"/>
-      <c r="K15" s="5" t="inlineStr"/>
-      <c r="L15" s="5" t="inlineStr"/>
-      <c r="M15" s="5" t="inlineStr"/>
-      <c r="N15" s="5" t="inlineStr"/>
+      <c r="C15" s="5" t="n">
+        <v>-0.1092305126500903</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.7453157169814725</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>1.678003384045089</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.8579529307432305</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.2124511389135438</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.5525232117405264</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0.2749419726936736</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0.79213303624549</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>0.02542551903228777</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>0.5182488392279024</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>0.6929841820425273</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>0.6475063302484874</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
